--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-masking-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="93">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,93 +43,90 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>thin</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>pool</t>
+    <t>returned</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
+    <t>junk</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>returned</t>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>however</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>water</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
     <t>instead</t>
   </si>
   <si>
     <t>missing</t>
   </si>
   <si>
+    <t>short</t>
+  </si>
+  <si>
     <t>small</t>
   </si>
   <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
     <t>guess</t>
   </si>
   <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>okay</t>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>pay</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>di</t>
+    <t>difficult</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
@@ -145,22 +142,22 @@
     <t>hard</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>item</t>
   </si>
   <si>
-    <t>worked</t>
+    <t>would</t>
+  </si>
+  <si>
+    <t>money</t>
   </si>
   <si>
     <t>back</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>would</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>price</t>
   </si>
   <si>
     <t>work</t>
@@ -169,54 +166,42 @@
     <t>could</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
     <t>pieces</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>even</t>
+    <t>buy</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
     <t>toy</t>
   </si>
   <si>
@@ -226,12 +211,12 @@
     <t>wonderful</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -241,67 +226,70 @@
     <t>classic</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>learn</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>every</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
-    <t>enjoyed</t>
+    <t>game</t>
+  </si>
+  <si>
+    <t>family</t>
   </si>
   <si>
     <t>easy</t>
   </si>
   <si>
-    <t>cute</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
+    <t>playing</t>
+  </si>
+  <si>
     <t>play</t>
+  </si>
+  <si>
+    <t>kids</t>
   </si>
   <si>
     <t>positive</t>
@@ -662,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -670,10 +658,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -731,13 +719,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9347826086956522</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -749,10 +737,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K3">
         <v>0.8928571428571429</v>
@@ -781,13 +769,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8863636363636364</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C4">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -799,19 +787,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K4">
-        <v>0.8923076923076924</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L4">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="M4">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -823,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -831,13 +819,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7586206896551724</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -849,19 +837,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="K5">
-        <v>0.8888888888888888</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -873,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -881,13 +869,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7428571428571429</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -899,19 +887,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="K6">
-        <v>0.8387096774193549</v>
+        <v>0.8172043010752689</v>
       </c>
       <c r="L6">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M6">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -923,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -931,13 +919,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7323943661971831</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="C7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -949,10 +937,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K7">
         <v>0.796875</v>
@@ -981,13 +969,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7150537634408602</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="C8">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="D8">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -999,10 +987,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="K8">
         <v>0.6981132075471698</v>
@@ -1031,13 +1019,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7105263157894737</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1049,19 +1037,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K9">
-        <v>0.5724533715925395</v>
+        <v>0.5797101449275363</v>
       </c>
       <c r="L9">
-        <v>399</v>
+        <v>40</v>
       </c>
       <c r="M9">
-        <v>399</v>
+        <v>40</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1073,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>298</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1081,13 +1069,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6959459459459459</v>
+        <v>0.6504854368932039</v>
       </c>
       <c r="C10">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="D10">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1099,19 +1087,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K10">
-        <v>0.5652173913043478</v>
+        <v>0.5796269727403156</v>
       </c>
       <c r="L10">
-        <v>39</v>
+        <v>404</v>
       </c>
       <c r="M10">
-        <v>39</v>
+        <v>404</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1123,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>30</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1131,13 +1119,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6601941747572816</v>
+        <v>0.640625</v>
       </c>
       <c r="C11">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="D11">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1149,19 +1137,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K11">
-        <v>0.5435684647302904</v>
+        <v>0.5456431535269709</v>
       </c>
       <c r="L11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1173,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1181,13 +1169,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6428571428571429</v>
+        <v>0.6283783783783784</v>
       </c>
       <c r="C12">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="D12">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1199,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K12">
-        <v>0.4721311475409836</v>
+        <v>0.4716981132075472</v>
       </c>
       <c r="L12">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M12">
         <v>576</v>
@@ -1220,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
         <v>644</v>
@@ -1231,13 +1219,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6181818181818182</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="C13">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D13">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1249,19 +1237,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K13">
-        <v>0.3855421686746988</v>
+        <v>0.3730886850152905</v>
       </c>
       <c r="L13">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="M13">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1273,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>102</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1281,13 +1269,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6134453781512605</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C14">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D14">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1299,19 +1287,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K14">
-        <v>0.382262996941896</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="L14">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="M14">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1323,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>202</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1331,13 +1319,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.609375</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="C15">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1349,19 +1337,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K15">
-        <v>0.3583333333333333</v>
+        <v>0.3614457831325301</v>
       </c>
       <c r="L15">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="M15">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1373,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>77</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1381,13 +1369,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5416666666666666</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="C16">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D16">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1402,16 +1390,16 @@
         <v>22</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K16">
-        <v>0.291005291005291</v>
+        <v>0.35</v>
       </c>
       <c r="L16">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M16">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1423,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>134</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1431,37 +1419,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5333333333333333</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="C17">
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>24</v>
       </c>
-      <c r="D17">
-        <v>24</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>21</v>
-      </c>
       <c r="J17" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="K17">
-        <v>0.2578125</v>
+        <v>0.2734375</v>
       </c>
       <c r="L17">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M17">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1473,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1481,13 +1469,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5304347826086957</v>
+        <v>0.5072463768115942</v>
       </c>
       <c r="C18">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D18">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1499,31 +1487,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K18">
-        <v>0.2379032258064516</v>
+        <v>0.2097902097902098</v>
       </c>
       <c r="L18">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="M18">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N18">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>189</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1531,13 +1519,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5185185185185185</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C19">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D19">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1549,19 +1537,19 @@
         <v>0</v>
       </c>
       <c r="H19">
+        <v>30</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K19">
+        <v>0.2063492063492063</v>
+      </c>
+      <c r="L19">
         <v>26</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K19">
-        <v>0.2237762237762238</v>
-      </c>
-      <c r="L19">
-        <v>32</v>
-      </c>
       <c r="M19">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1573,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1581,13 +1569,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4693877551020408</v>
+        <v>0.4337349397590362</v>
       </c>
       <c r="C20">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D20">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1599,19 +1587,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K20">
-        <v>0.192</v>
+        <v>0.1989247311827957</v>
       </c>
       <c r="L20">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="M20">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1623,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>101</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1631,13 +1619,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4566929133858268</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C21">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="D21">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1649,19 +1637,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K21">
-        <v>0.1881720430107527</v>
+        <v>0.1967871485943775</v>
       </c>
       <c r="L21">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="M21">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1673,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>151</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1681,49 +1669,49 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4457831325301205</v>
+        <v>0.421875</v>
       </c>
       <c r="C22">
+        <v>27</v>
+      </c>
+      <c r="D22">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <v>37</v>
       </c>
-      <c r="D22">
-        <v>37</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>46</v>
-      </c>
       <c r="J22" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K22">
-        <v>0.1764705882352941</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="L22">
-        <v>201</v>
+        <v>24</v>
       </c>
       <c r="M22">
-        <v>203</v>
+        <v>25</v>
       </c>
       <c r="N22">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="O22">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>938</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1731,13 +1719,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4333333333333333</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C23">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D23">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1749,19 +1737,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="K23">
-        <v>0.1746031746031746</v>
+        <v>0.1763157894736842</v>
       </c>
       <c r="L23">
-        <v>22</v>
+        <v>201</v>
       </c>
       <c r="M23">
-        <v>22</v>
+        <v>202</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1770,10 +1758,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>104</v>
+        <v>939</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1781,13 +1769,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4074074074074074</v>
+        <v>0.4173228346456693</v>
       </c>
       <c r="C24">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D24">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1799,31 +1787,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K24">
-        <v>0.1176470588235294</v>
+        <v>0.1027308192457737</v>
       </c>
       <c r="L24">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="M24">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>330</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1831,13 +1819,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4028436018957346</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C25">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="D25">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1849,19 +1837,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K25">
-        <v>0.08949416342412451</v>
+        <v>0.0947075208913649</v>
       </c>
       <c r="L25">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="M25">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1873,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>234</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1881,13 +1869,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.390625</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D26">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1899,19 +1887,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K26">
-        <v>0.08913649025069638</v>
+        <v>0.09358288770053476</v>
       </c>
       <c r="L26">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M26">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1923,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>327</v>
+        <v>339</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1931,13 +1919,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3828125</v>
+        <v>0.4</v>
       </c>
       <c r="C27">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D27">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1949,31 +1937,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K27">
-        <v>0.08896103896103896</v>
+        <v>0.0896551724137931</v>
       </c>
       <c r="L27">
-        <v>137</v>
+        <v>26</v>
       </c>
       <c r="M27">
-        <v>138</v>
+        <v>26</v>
       </c>
       <c r="N27">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>1403</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2002,10 +1990,10 @@
         <v>39</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="K28">
-        <v>0.08275862068965517</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="L28">
         <v>24</v>
@@ -2023,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>266</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2031,13 +2019,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3793103448275862</v>
+        <v>0.3601895734597156</v>
       </c>
       <c r="C29">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="D29">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2049,31 +2037,31 @@
         <v>0</v>
       </c>
       <c r="H29">
+        <v>135</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K29">
+        <v>0.04806408544726302</v>
+      </c>
+      <c r="L29">
         <v>36</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="K29">
-        <v>0.05503355704697987</v>
-      </c>
-      <c r="L29">
-        <v>41</v>
-      </c>
       <c r="M29">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="N29">
-        <v>0.85</v>
+        <v>0.92</v>
       </c>
       <c r="O29">
-        <v>0.15</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P29" t="b">
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>704</v>
+        <v>713</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2081,13 +2069,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3789473684210526</v>
+        <v>0.3258426966292135</v>
       </c>
       <c r="C30">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D30">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2099,7 +2087,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K30">
+        <v>0.03914590747330961</v>
+      </c>
+      <c r="L30">
+        <v>22</v>
+      </c>
+      <c r="M30">
+        <v>25</v>
+      </c>
+      <c r="N30">
+        <v>0.88</v>
+      </c>
+      <c r="O30">
+        <v>0.12</v>
+      </c>
+      <c r="P30" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>540</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2107,13 +2119,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3650793650793651</v>
+        <v>0.3125</v>
       </c>
       <c r="C31">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D31">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2125,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>40</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2133,13 +2145,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3258426966292135</v>
+        <v>0.3069306930693069</v>
       </c>
       <c r="C32">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="D32">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2151,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>60</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2159,13 +2171,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2722772277227723</v>
+        <v>0.2551020408163265</v>
       </c>
       <c r="C33">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D33">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2177,7 +2189,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>147</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2185,13 +2197,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2551020408163265</v>
+        <v>0.2478632478632479</v>
       </c>
       <c r="C34">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D34">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2203,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2211,13 +2223,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2307692307692308</v>
+        <v>0.2319587628865979</v>
       </c>
       <c r="C35">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="D35">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2229,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>90</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2237,13 +2249,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2216494845360825</v>
+        <v>0.21</v>
       </c>
       <c r="C36">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D36">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2255,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2263,13 +2275,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.215</v>
+        <v>0.1992753623188406</v>
       </c>
       <c r="C37">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D37">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2281,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>157</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2289,25 +2301,25 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.211864406779661</v>
+        <v>0.187221396731055</v>
       </c>
       <c r="C38">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="D38">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>93</v>
+        <v>547</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2315,13 +2327,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2065217391304348</v>
+        <v>0.1867088607594937</v>
       </c>
       <c r="C39">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D39">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2333,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>219</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2341,13 +2353,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2037037037037037</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="C40">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D40">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2359,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>86</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2367,13 +2379,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1857142857142857</v>
+        <v>0.1635514018691589</v>
       </c>
       <c r="C41">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D41">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2385,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>114</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2393,25 +2405,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1835443037974684</v>
+        <v>0.1613832853025937</v>
       </c>
       <c r="C42">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D42">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>258</v>
+        <v>291</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2419,13 +2431,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.181547619047619</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="C43">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="D43">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="E43">
         <v>0.02</v>
@@ -2437,7 +2449,7 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>550</v>
+        <v>265</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2445,25 +2457,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1809523809523809</v>
+        <v>0.1528662420382166</v>
       </c>
       <c r="C44">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="D44">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="E44">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>258</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2471,13 +2483,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.178343949044586</v>
+        <v>0.1431718061674009</v>
       </c>
       <c r="C45">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="D45">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2489,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>129</v>
+        <v>389</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2497,25 +2509,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1728971962616822</v>
+        <v>0.1263157894736842</v>
       </c>
       <c r="C46">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D46">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2523,25 +2535,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1611479028697572</v>
+        <v>0.1257142857142857</v>
       </c>
       <c r="C47">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="D47">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="E47">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>380</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2549,13 +2561,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1584699453551913</v>
+        <v>0.1202185792349727</v>
       </c>
       <c r="C48">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D48">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2567,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2575,25 +2587,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1527377521613833</v>
+        <v>0.1170212765957447</v>
       </c>
       <c r="C49">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="D49">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="E49">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="F49">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>294</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2601,25 +2613,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1518324607329843</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C50">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D50">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>162</v>
+        <v>221</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2627,13 +2639,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1371428571428571</v>
+        <v>0.1048689138576779</v>
       </c>
       <c r="C51">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D51">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2645,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>151</v>
+        <v>239</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2653,25 +2665,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1336898395721925</v>
+        <v>0.09315068493150686</v>
       </c>
       <c r="C52">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D52">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E52">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>162</v>
+        <v>331</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2679,25 +2691,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1240601503759398</v>
+        <v>0.09295774647887324</v>
       </c>
       <c r="C53">
         <v>33</v>
       </c>
       <c r="D53">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E53">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>233</v>
+        <v>322</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2705,7 +2717,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1098901098901099</v>
+        <v>0.08928571428571429</v>
       </c>
       <c r="C54">
         <v>40</v>
@@ -2723,7 +2735,7 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <v>324</v>
+        <v>408</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2731,13 +2743,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1052631578947368</v>
+        <v>0.07260726072607261</v>
       </c>
       <c r="C55">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D55">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="E55">
         <v>0.04</v>
@@ -2749,7 +2761,7 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <v>221</v>
+        <v>562</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2757,25 +2769,25 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.07885304659498207</v>
+        <v>0.05979643765903308</v>
       </c>
       <c r="C56">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D56">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="E56">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="F56">
-        <v>0.96</v>
+        <v>0.85</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
       <c r="H56">
-        <v>257</v>
+        <v>739</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2783,155 +2795,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.07589285714285714</v>
+        <v>0.05053598774885146</v>
       </c>
       <c r="C57">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D57">
         <v>35</v>
       </c>
       <c r="E57">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="F57">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
       </c>
       <c r="H57">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58">
-        <v>0.07323943661971831</v>
-      </c>
-      <c r="C58">
-        <v>26</v>
-      </c>
-      <c r="D58">
-        <v>26</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59">
-        <v>0.07296849087893864</v>
-      </c>
-      <c r="C59">
-        <v>44</v>
-      </c>
-      <c r="D59">
-        <v>49</v>
-      </c>
-      <c r="E59">
-        <v>0.1</v>
-      </c>
-      <c r="F59">
-        <v>0.9</v>
-      </c>
-      <c r="G59" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60">
-        <v>0.06091370558375635</v>
-      </c>
-      <c r="C60">
-        <v>48</v>
-      </c>
-      <c r="D60">
-        <v>54</v>
-      </c>
-      <c r="E60">
-        <v>0.11</v>
-      </c>
-      <c r="F60">
-        <v>0.89</v>
-      </c>
-      <c r="G60" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61">
-        <v>0.05620608899297424</v>
-      </c>
-      <c r="C61">
-        <v>24</v>
-      </c>
-      <c r="D61">
-        <v>31</v>
-      </c>
-      <c r="E61">
-        <v>0.23</v>
-      </c>
-      <c r="F61">
-        <v>0.77</v>
-      </c>
-      <c r="G61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62">
-        <v>0.05359877488514548</v>
-      </c>
-      <c r="C62">
-        <v>35</v>
-      </c>
-      <c r="D62">
-        <v>37</v>
-      </c>
-      <c r="E62">
-        <v>0.05</v>
-      </c>
-      <c r="F62">
-        <v>0.95</v>
-      </c>
-      <c r="G62" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>
